--- a/UC-EntityClass.xlsx
+++ b/UC-EntityClass.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECEUWO\Teaching\Fall2017\SE3352A\Assignments\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sooruj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,86 +24,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">Team Name: </t>
-  </si>
-  <si>
-    <t>Project Name:</t>
-  </si>
-  <si>
-    <t>.. and so on</t>
-  </si>
-  <si>
-    <t>add x to link</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>Use Cases/
 Entity Class</t>
   </si>
   <si>
-    <t>class name 1</t>
-  </si>
-  <si>
-    <t>class name 2</t>
-  </si>
-  <si>
-    <t>class name 3</t>
-  </si>
-  <si>
-    <t>class name 4</t>
-  </si>
-  <si>
-    <t>class name 5</t>
-  </si>
-  <si>
-    <t>use case
-name 1</t>
-  </si>
-  <si>
-    <t>use case
-name 2</t>
-  </si>
-  <si>
-    <t>use case
-name 3</t>
-  </si>
-  <si>
-    <t>use case
-name 4</t>
-  </si>
-  <si>
-    <t>use case
-name 5</t>
-  </si>
-  <si>
-    <t>use case
-name 6</t>
-  </si>
-  <si>
-    <t>use case
-name 7</t>
-  </si>
-  <si>
-    <t>use case
-name 8</t>
-  </si>
-  <si>
-    <t>use case
-name 9</t>
-  </si>
-  <si>
-    <t>use case
-name 10</t>
-  </si>
-  <si>
     <t>Use Cases-to-Entity Classs Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Book Appointment</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>Submit Introduction Form</t>
+  </si>
+  <si>
+    <t>Process Payment</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Set New Password</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>View Treatment Exercises</t>
+  </si>
+  <si>
+    <t>Create Single Exercise</t>
+  </si>
+  <si>
+    <t>Create Single Self-Assessment</t>
+  </si>
+  <si>
+    <t>Submit Self-Assessment</t>
+  </si>
+  <si>
+    <t>Create Rehab Plan</t>
+  </si>
+  <si>
+    <t>Assign Rehab Plan</t>
+  </si>
+  <si>
+    <t>Send Treatment Plan</t>
+  </si>
+  <si>
+    <t>Assess Test Results</t>
+  </si>
+  <si>
+    <t>View Patient Summary</t>
+  </si>
+  <si>
+    <t>Follow Up with Patient</t>
+  </si>
+  <si>
+    <t>Modify Introduction Form</t>
+  </si>
+  <si>
+    <t>Manage Account</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Physiotherapist</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Injury Report</t>
+  </si>
+  <si>
+    <t>Treatment Plan</t>
+  </si>
+  <si>
+    <t>Self Assessment</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Team Name: Ademidun Hart &amp; Co</t>
+  </si>
+  <si>
+    <t>Project Name: Self -Start</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Note: User and Form Entity Classes were not included in this matrix. Since User will always exist as either an Admin, Physiotherapist, or Patient and Form will always exist as an Injury Report or Self Assessment. Therefore it would not make sense to include the parent classes.</t>
+  </si>
+  <si>
+    <t>Note: Please refer to our definition of Assign Rehab Plan in the SRS. In this use case the Physio assigns assessments and exercises to the rehab/treatment plan.</t>
+  </si>
+  <si>
+    <t>Note: Rehab Plan and Treatment Plan are used interchangeably. The Introduction Form and Injury Report refer to the same thing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,31 +151,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -167,29 +211,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,188 +546,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/UC-EntityClass.xlsx
+++ b/UC-EntityClass.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sooruj\Dropbox\School\SE 3352 Requirements\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvuke\Documents\3. 4th Year Software Eng\SE 3352 - Software Requirements\Assignment 2 Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Team Name: Ademidun Hart &amp; Co</t>
   </si>
   <si>
-    <t>Project Name: Self -Start</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -136,13 +133,16 @@
   </si>
   <si>
     <t>Note: Rehab Plan and Treatment Plan are used interchangeably. The Introduction Form and Injury Report refer to the same thing.</t>
+  </si>
+  <si>
+    <t>Project Name: Self -Start at Marcotte Physiotherapy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,31 +151,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,30 +211,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,33 +546,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="85.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="15.77734375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -593,448 +581,448 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
